--- a/trunk/05. References/0.55. Training/PLED_CM Guildelines_V1.0.xlsx
+++ b/trunk/05. References/0.55. Training/PLED_CM Guildelines_V1.0.xlsx
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>Tài liệu đào tạo của team</t>
-  </si>
-  <si>
-    <t>07. JIEM</t>
   </si>
   <si>
     <t>Tài liệu tham khảo khách hàng cung cấp, testcase updated</t>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>pLEDv1.0</t>
+  </si>
+  <si>
+    <t>07. pLED</t>
   </si>
 </sst>
 </file>
@@ -799,6 +799,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -834,9 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="A5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
       <c r="E7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
@@ -1233,10 +1233,10 @@
       <c r="E8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -1249,10 +1249,10 @@
       <c r="E9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="43"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -1261,11 +1261,11 @@
       <c r="E10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1275,11 +1275,11 @@
       <c r="E11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1287,11 +1287,11 @@
       <c r="E12" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1299,11 +1299,11 @@
       <c r="E13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="38" t="s">
         <v>10</v>
       </c>
@@ -1311,11 +1311,11 @@
         <v>71</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="39"/>
       <c r="D15" s="18" t="s">
         <v>61</v>
@@ -1323,11 +1323,11 @@
       <c r="E15" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="50"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="40"/>
       <c r="D16" s="18" t="s">
         <v>33</v>
@@ -1335,11 +1335,11 @@
       <c r="E16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="41"/>
       <c r="D17" s="18" t="s">
         <v>72</v>
@@ -1347,11 +1347,11 @@
       <c r="E17" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="38" t="s">
         <v>11</v>
       </c>
@@ -1359,21 +1359,21 @@
         <v>79</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="41"/>
       <c r="D19" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="38" t="s">
         <v>12</v>
       </c>
@@ -1381,11 +1381,11 @@
         <v>81</v>
       </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="50"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="39"/>
       <c r="D21" s="18" t="s">
         <v>82</v>
@@ -1393,21 +1393,21 @@
       <c r="E21" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="50"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="42"/>
       <c r="D22" s="18" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="50"/>
+      <c r="F22" s="51"/>
     </row>
     <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1415,11 +1415,11 @@
       <c r="E23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="17" t="s">
         <v>14</v>
       </c>
@@ -1427,11 +1427,11 @@
       <c r="E24" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="17" t="s">
         <v>15</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="E25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="43" t="s">
         <v>4</v>
       </c>
@@ -1453,10 +1453,10 @@
       <c r="E26" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
         <v>17</v>
@@ -1467,40 +1467,40 @@
       <c r="E27" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="50"/>
+      <c r="F28" s="51"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
       <c r="D29" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="50"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43" t="s">
         <v>18</v>
@@ -1511,10 +1511,10 @@
       <c r="E31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="51"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="43"/>
       <c r="C32" s="44"/>
       <c r="D32" s="20" t="s">
@@ -1523,10 +1523,10 @@
       <c r="E32" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="50"/>
+      <c r="F32" s="51"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="43"/>
       <c r="C33" s="19" t="s">
         <v>19</v>
@@ -1535,20 +1535,20 @@
       <c r="E33" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="43"/>
       <c r="C34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43" t="s">
         <v>21</v>
@@ -1559,22 +1559,22 @@
       <c r="E35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="50"/>
+      <c r="F35" s="51"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="43"/>
       <c r="C36" s="44"/>
       <c r="D36" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
       <c r="D37" s="20" t="s">
@@ -1583,10 +1583,10 @@
       <c r="E37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="50"/>
+      <c r="F37" s="51"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="43"/>
       <c r="C38" s="19" t="s">
         <v>22</v>
@@ -1595,11 +1595,11 @@
       <c r="E38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="50"/>
+      <c r="F38" s="51"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -1609,31 +1609,31 @@
       <c r="E39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="50"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="50"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="17" t="s">
         <v>26</v>
       </c>
@@ -1641,11 +1641,11 @@
       <c r="E42" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="50"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -1653,11 +1653,11 @@
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="50"/>
+      <c r="F43" s="51"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="21" t="s">
         <v>91</v>
       </c>
@@ -1665,32 +1665,32 @@
       <c r="E44" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="50"/>
+      <c r="F44" s="51"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="50"/>
+        <v>97</v>
+      </c>
+      <c r="F45" s="51"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="50"/>
+      <c r="F46" s="51"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="41"/>
       <c r="C47" s="21" t="s">
         <v>93</v>
@@ -1699,10 +1699,10 @@
       <c r="E47" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="50"/>
+      <c r="F47" s="51"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="17" t="s">
         <v>31</v>
       </c>
@@ -1711,11 +1711,11 @@
       <c r="E48" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="51" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -1819,12 +1819,12 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>

--- a/trunk/05. References/0.55. Training/PLED_CM Guildelines_V1.0.xlsx
+++ b/trunk/05. References/0.55. Training/PLED_CM Guildelines_V1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>04. Support</t>
   </si>
@@ -162,40 +162,6 @@
   </si>
   <si>
     <t>Handover document or log between project team members.</t>
-  </si>
-  <si>
-    <t>Test report của tester</t>
-  </si>
-  <si>
-    <t>Tài liệu PPQA: QA Plan, QA report, Tailoring</t>
-  </si>
-  <si>
-    <t>Tài liệu signed-off bởi customers</t>
-  </si>
-  <si>
-    <t>Tài liệu thiết kế của team/ khách hàng gửi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khi tài liệu có thay đổi nội dung cần phải đánh version theo định dạng: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m.n</t>
-    </r>
-  </si>
-  <si>
-    <t>- Meeting minute của team/khách hàng
-- Email với khách hàng, chat notes</t>
-  </si>
-  <si>
-    <t>Test plan của tester leader/tester/PM</t>
   </si>
   <si>
     <t>Từ 1.0 lên 1.(x+):  Tài liệu bổ sung những nội dung nhỏ và không làm thay đổi cấu trúc tài liệu</t>
@@ -209,12 +175,6 @@
     <t>Từ 1.0 lên 2.0, 3.0: Tài liệu có thay đổi lớn về cấu trúc tài liệu, thay đổi những nội dung quan trọng ảnh hưởng đến scope dự án</t>
   </si>
   <si>
-    <t>Lưu release cho khách hàng</t>
-  </si>
-  <si>
-    <t>Lưu các baselines</t>
-  </si>
-  <si>
     <t>Timesheet</t>
   </si>
   <si>
@@ -251,21 +211,6 @@
     <t>PMR</t>
   </si>
   <si>
-    <t>Timesheet của team</t>
-  </si>
-  <si>
-    <t>Tài liệu riêng của từng cá nhân</t>
-  </si>
-  <si>
-    <t>1. Cấu trúc thư mục dự án (SVN)</t>
-  </si>
-  <si>
-    <t>Initiation Note, Project charter (email khởi tạo từ khách hàng, từ PS, BOD)</t>
-  </si>
-  <si>
-    <t>Tài liệu CM như CM guidelines</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Estimation Sheet </t>
   </si>
   <si>
@@ -284,18 +229,9 @@
     <t>Rewards and Recognition</t>
   </si>
   <si>
-    <t>Leakage list khách hàng gửi</t>
-  </si>
-  <si>
-    <t>Tài liệu tham khảo team tìm được</t>
-  </si>
-  <si>
     <t>Repository:</t>
   </si>
   <si>
-    <t>Báo cáo tiến độ cho khách hàng</t>
-  </si>
-  <si>
     <t>Source Codes implemented by team</t>
   </si>
   <si>
@@ -314,21 +250,82 @@
     <t>0.55. Training</t>
   </si>
   <si>
+    <t>Impact Analysis</t>
+  </si>
+  <si>
+    <t>2. Version control</t>
+  </si>
+  <si>
+    <t>Configuration Management Guidelines for pLED project</t>
+  </si>
+  <si>
+    <t>https://pled.googlecode.com/svn/</t>
+  </si>
+  <si>
+    <t>pLEDv1.0</t>
+  </si>
+  <si>
+    <t>Baselines</t>
+  </si>
+  <si>
+    <t>Product release tranfer to customer</t>
+  </si>
+  <si>
+    <t>Initiation Note, Project charter</t>
+  </si>
+  <si>
+    <t>Timesheet of team</t>
+  </si>
+  <si>
+    <t>- Meeting minute between team and customer
+- Email , chat notes with customer</t>
+  </si>
+  <si>
+    <t>Report process to customer</t>
+  </si>
+  <si>
+    <t>Leakage list</t>
+  </si>
+  <si>
+    <t>Document signed-off by customers supply</t>
+  </si>
+  <si>
     <t>- Coding convention
-- Source code mẫu của khách hàng
-- Guildeline của team, QA, PM</t>
-  </si>
-  <si>
-    <t>Impact Analysis</t>
-  </si>
-  <si>
-    <t>Tài liệu đào tạo của team</t>
-  </si>
-  <si>
-    <t>Tài liệu tham khảo khách hàng cung cấp, testcase updated</t>
-  </si>
-  <si>
-    <t>Test case / Test checklist của tester</t>
+- Source code model of customer 
+- Guildeline of team, QA, PM</t>
+  </si>
+  <si>
+    <t>Document design (Basic design)</t>
+  </si>
+  <si>
+    <t>Document design (Detail - Design)</t>
+  </si>
+  <si>
+    <t>Test plan of tester leader/tester/PM</t>
+  </si>
+  <si>
+    <t>Test case / Test checklist of tester</t>
+  </si>
+  <si>
+    <t>Document CM . Example: CM guidelines</t>
+  </si>
+  <si>
+    <t>Document PPQA: QA Plan, QA report, Tailoring</t>
+  </si>
+  <si>
+    <t>Document consult of team</t>
+  </si>
+  <si>
+    <t>Document consult by customer supply, testcase updated</t>
+  </si>
+  <si>
+    <t>Document training</t>
+  </si>
+  <si>
+    <t>Document personal</t>
+  </si>
+  <si>
+    <t>When change document  must be set version follows : m.n</t>
   </si>
   <si>
     <r>
@@ -350,18 +347,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-1. Tên subproject phải đặt thống nhất trên SVN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-  PM quy định cách đặt tên subproject khi kickoff dự án
-           </t>
+1. Tên subproject phải đặt thống nhất trên SVN</t>
     </r>
     <r>
       <rPr>
@@ -381,26 +367,17 @@
     </r>
   </si>
   <si>
-    <t>2. Version control</t>
-  </si>
-  <si>
-    <t>Configuration Management Guidelines for pLED project</t>
-  </si>
-  <si>
-    <t>https://pled.googlecode.com/svn/</t>
-  </si>
-  <si>
-    <t>pLEDv1.0</t>
-  </si>
-  <si>
-    <t>07. pLED</t>
+    <t>1. Structure project (SVN)</t>
+  </si>
+  <si>
+    <t>Test report of Tester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,12 +470,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -664,9 +635,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -757,9 +728,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -799,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F87"/>
+  <dimension ref="A2:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1135,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -1178,7 +1146,7 @@
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1187,23 +1155,23 @@
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
@@ -1219,9 +1187,9 @@
       <c r="C7" s="16"/>
       <c r="D7" s="8"/>
       <c r="E7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
@@ -1231,15 +1199,15 @@
       <c r="C8" s="16"/>
       <c r="D8" s="8"/>
       <c r="E8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="51"/>
+        <v>83</v>
+      </c>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1249,11 +1217,11 @@
       <c r="E9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
       </c>
@@ -1261,11 +1229,11 @@
       <c r="E10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="56" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1273,25 +1241,25 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="51"/>
+        <v>64</v>
+      </c>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1299,115 +1267,115 @@
       <c r="E13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="51"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="38" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="51"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="51"/>
+        <v>88</v>
+      </c>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="18" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1415,23 +1383,23 @@
       <c r="E23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="51"/>
+        <v>89</v>
+      </c>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="17" t="s">
         <v>15</v>
       </c>
@@ -1439,11 +1407,11 @@
       <c r="E25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="51"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -1451,155 +1419,155 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="51"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="51"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="20" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="51"/>
+        <v>91</v>
+      </c>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="51"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="51"/>
+        <v>94</v>
+      </c>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="51"/>
+        <v>104</v>
+      </c>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -1607,318 +1575,316 @@
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="51"/>
+        <v>95</v>
+      </c>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="51"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="51"/>
+        <v>96</v>
+      </c>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="58" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="51"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="21" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="51"/>
+        <v>97</v>
+      </c>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="21" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="51"/>
+        <v>98</v>
+      </c>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="21" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="51"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="21" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="51"/>
+        <v>99</v>
+      </c>
+      <c r="F47" s="50"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="34"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="27"/>
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="C53" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>67</v>
+      <c r="B54" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
-      <c r="B56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>69</v>
+      <c r="B56" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
-      <c r="B57" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
-      <c r="B58" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+    </row>
+    <row r="69" spans="2:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+    </row>
+    <row r="70" spans="2:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+    </row>
+    <row r="71" spans="2:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+    </row>
+    <row r="72" spans="2:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+    </row>
+    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="36"/>
@@ -1926,29 +1892,23 @@
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
     </row>
-    <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1962,7 +1922,7 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B67:E87"/>
+    <mergeCell ref="B66:E86"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C22"/>
